--- a/Semester_3/Biology_Practicals/Analysis/Taste/Book2 (Autosaved).xlsx
+++ b/Semester_3/Biology_Practicals/Analysis/Taste/Book2 (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Biplob</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>t value</t>
+  </si>
+  <si>
+    <t>Ritu</t>
+  </si>
+  <si>
+    <t>Bhati</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Joydeep</t>
+  </si>
+  <si>
+    <t>Deepanshu</t>
+  </si>
+  <si>
+    <t>Devwrat</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Kishor</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Analyzed till here</t>
   </si>
 </sst>
 </file>
@@ -462,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D18" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D27" si="0">AVERAGE(B2:C2)</f>
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -834,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -852,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -862,6 +892,144 @@
       <c r="D18">
         <f t="shared" si="0"/>
         <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
